--- a/outputs/train-f__Muribaculaceae.xlsx
+++ b/outputs/train-f__Muribaculaceae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score2" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score4" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score5" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="462">
   <si>
     <t>Row</t>
   </si>
@@ -1133,6 +1134,276 @@
   </si>
   <si>
     <t>RS_GCF_004102805.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689515.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689515.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689515.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689515.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001941205.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001941205.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539915.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539915.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539915.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547825.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002396085.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314215.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317325.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317835.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318205.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318535.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318535.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318865.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437795.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437795.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004555955.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004555955.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561555.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541555.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541555.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541555.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541935.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541935.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541935.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002491945.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003979075.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004552395.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553095.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542185.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900550645.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762615.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689415.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493945.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002633115.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002633115.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003979155.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004552485.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004554255.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541865.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554265.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554715.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689495.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701225.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701225.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494015.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544535.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544535.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003024805.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762875.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762875.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004803915.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004803915.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689405.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689405.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701065.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002201515.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002201515.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002201515.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003671795.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004570975.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004570975.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004570975.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004801635.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004803695.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431155.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431155.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431155.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689535.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701115.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546365.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546365.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551515.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900553585.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003024925.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001915385.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001915385.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540205.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545955.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545955.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546835.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546835.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004102785.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004102805.1_8.fasta</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1169,11 +1440,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1183,6 +1456,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15112,4 +15387,3485 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L91"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="17.28515625" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.85546875" customWidth="true"/>
+    <col min="9" max="9" width="19.7109375" customWidth="true"/>
+    <col min="10" max="10" width="15.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.28515625" customWidth="true"/>
+    <col min="12" max="12" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2">
+        <v>0.99589350498643248</v>
+      </c>
+      <c r="C2">
+        <v>2.220050161003718e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.220050161003718e-14</v>
+      </c>
+      <c r="E2">
+        <v>0.00049317744399910639</v>
+      </c>
+      <c r="F2">
+        <v>0.00020811135825679096</v>
+      </c>
+      <c r="G2">
+        <v>0.0034046199098006127</v>
+      </c>
+      <c r="H2">
+        <v>2.220050161003718e-14</v>
+      </c>
+      <c r="I2">
+        <v>5.7802488797392121e-07</v>
+      </c>
+      <c r="J2">
+        <v>8.2765562884711018e-09</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3">
+        <v>0.98738271711833081</v>
+      </c>
+      <c r="C3">
+        <v>2.2199696826305063e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2199696826305063e-14</v>
+      </c>
+      <c r="E3">
+        <v>0.00010684002282052325</v>
+      </c>
+      <c r="F3">
+        <v>0.0010840041541410668</v>
+      </c>
+      <c r="G3">
+        <v>0.011426321136249466</v>
+      </c>
+      <c r="H3">
+        <v>2.2199696826305063e-14</v>
+      </c>
+      <c r="I3">
+        <v>1.0746127602033609e-07</v>
+      </c>
+      <c r="J3">
+        <v>1.0107115178111394e-08</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4">
+        <v>0.82287865964819085</v>
+      </c>
+      <c r="C4">
+        <v>2.2187174365844742e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2187174365844742e-14</v>
+      </c>
+      <c r="E4">
+        <v>3.4291531110444653e-05</v>
+      </c>
+      <c r="F4">
+        <v>0.0043441880715391007</v>
+      </c>
+      <c r="G4">
+        <v>0.17274212477288592</v>
+      </c>
+      <c r="H4">
+        <v>2.2187174365844742e-14</v>
+      </c>
+      <c r="I4">
+        <v>4.5974915523392062e-07</v>
+      </c>
+      <c r="J4">
+        <v>2.7622705210715484e-07</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5">
+        <v>0.99620216736460576</v>
+      </c>
+      <c r="C5">
+        <v>2.2200739811326934e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2200739811326934e-14</v>
+      </c>
+      <c r="E5">
+        <v>0.0006603732723031695</v>
+      </c>
+      <c r="F5">
+        <v>0.00032589237875242432</v>
+      </c>
+      <c r="G5">
+        <v>0.0028110614495974527</v>
+      </c>
+      <c r="H5">
+        <v>2.2200739811326934e-14</v>
+      </c>
+      <c r="I5">
+        <v>4.9201251687897455e-07</v>
+      </c>
+      <c r="J5">
+        <v>1.3522157572056788e-08</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6">
+        <v>0.994450432736941</v>
+      </c>
+      <c r="C6">
+        <v>2.220080775033598e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.220080775033598e-14</v>
+      </c>
+      <c r="E6">
+        <v>0.0046000541515087258</v>
+      </c>
+      <c r="F6">
+        <v>0.00025221398556777831</v>
+      </c>
+      <c r="G6">
+        <v>0.00068835622218384922</v>
+      </c>
+      <c r="H6">
+        <v>6.5953573412086238e-09</v>
+      </c>
+      <c r="I6">
+        <v>6.1644212100597849e-08</v>
+      </c>
+      <c r="J6">
+        <v>8.8746641849239465e-06</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7">
+        <v>0.99605594467092784</v>
+      </c>
+      <c r="C7">
+        <v>2.2201146882573499e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2201146882573499e-14</v>
+      </c>
+      <c r="E7">
+        <v>0.0024693608818745615</v>
+      </c>
+      <c r="F7">
+        <v>0.00038638224674730065</v>
+      </c>
+      <c r="G7">
+        <v>0.0010812497666433747</v>
+      </c>
+      <c r="H7">
+        <v>2.5517693002810762e-08</v>
+      </c>
+      <c r="I7">
+        <v>5.8288751763080345e-08</v>
+      </c>
+      <c r="J7">
+        <v>6.9786273179821121e-06</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8">
+        <v>0.99636580169217648</v>
+      </c>
+      <c r="C8">
+        <v>2.2200459940449984e-14</v>
+      </c>
+      <c r="D8">
+        <v>2.2200459940449984e-14</v>
+      </c>
+      <c r="E8">
+        <v>0.0028748653955366159</v>
+      </c>
+      <c r="F8">
+        <v>4.9954519957909875e-05</v>
+      </c>
+      <c r="G8">
+        <v>0.00070931998625738027</v>
+      </c>
+      <c r="H8">
+        <v>2.2200459940449984e-14</v>
+      </c>
+      <c r="I8">
+        <v>5.0862754643350347e-08</v>
+      </c>
+      <c r="J8">
+        <v>7.5432503984819074e-09</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9">
+        <v>0.99746249119910002</v>
+      </c>
+      <c r="C9">
+        <v>2.2200133674761702e-14</v>
+      </c>
+      <c r="D9">
+        <v>2.2200133674761702e-14</v>
+      </c>
+      <c r="E9">
+        <v>0.00112650531434397</v>
+      </c>
+      <c r="F9">
+        <v>8.8401171695128665e-05</v>
+      </c>
+      <c r="G9">
+        <v>0.0013225604843413233</v>
+      </c>
+      <c r="H9">
+        <v>2.2200133674761702e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.7954740388200697e-08</v>
+      </c>
+      <c r="J9">
+        <v>1.3875712405932585e-08</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10">
+        <v>0.99749603057534353</v>
+      </c>
+      <c r="C10">
+        <v>2.2199881362399654e-14</v>
+      </c>
+      <c r="D10">
+        <v>2.2199881362399654e-14</v>
+      </c>
+      <c r="E10">
+        <v>0.0020022050126120351</v>
+      </c>
+      <c r="F10">
+        <v>4.8401990258304575e-05</v>
+      </c>
+      <c r="G10">
+        <v>0.00045318158910079694</v>
+      </c>
+      <c r="H10">
+        <v>2.2199881362399654e-14</v>
+      </c>
+      <c r="I10">
+        <v>1.210976387679728e-07</v>
+      </c>
+      <c r="J10">
+        <v>5.9734980103644002e-08</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11">
+        <v>0.97776274022915177</v>
+      </c>
+      <c r="C11">
+        <v>2.2199359085076132e-14</v>
+      </c>
+      <c r="D11">
+        <v>2.2199359085076132e-14</v>
+      </c>
+      <c r="E11">
+        <v>0.0024724124362048207</v>
+      </c>
+      <c r="F11">
+        <v>0.00038234764836681982</v>
+      </c>
+      <c r="G11">
+        <v>0.018781032576858092</v>
+      </c>
+      <c r="H11">
+        <v>1.3509039759548917e-13</v>
+      </c>
+      <c r="I11">
+        <v>0.00046578443342381605</v>
+      </c>
+      <c r="J11">
+        <v>0.00013568267581511948</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12">
+        <v>2.2199712357112801e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99806451636560367</v>
+      </c>
+      <c r="D12">
+        <v>2.2199712357112801e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.4718011874784541e-06</v>
+      </c>
+      <c r="F12">
+        <v>1.712324305479945e-08</v>
+      </c>
+      <c r="G12">
+        <v>6.023714748670929e-08</v>
+      </c>
+      <c r="H12">
+        <v>2.2199712357112801e-14</v>
+      </c>
+      <c r="I12">
+        <v>0.00073980110801227014</v>
+      </c>
+      <c r="J12">
+        <v>0.0011931333647395284</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13">
+        <v>2.2198849332125134e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.97586928523652616</v>
+      </c>
+      <c r="D13">
+        <v>2.2198849332125134e-14</v>
+      </c>
+      <c r="E13">
+        <v>0.024097764356437439</v>
+      </c>
+      <c r="F13">
+        <v>2.2198849332125134e-14</v>
+      </c>
+      <c r="G13">
+        <v>3.0487854222616828e-10</v>
+      </c>
+      <c r="H13">
+        <v>2.2198849332125134e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2198849332125134e-14</v>
+      </c>
+      <c r="J13">
+        <v>3.2950102046919222e-05</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14">
+        <v>2.2203337781842499e-14</v>
+      </c>
+      <c r="C14">
+        <v>0.99954433189645964</v>
+      </c>
+      <c r="D14">
+        <v>2.2203337781842499e-14</v>
+      </c>
+      <c r="E14">
+        <v>1.31855812485092e-05</v>
+      </c>
+      <c r="F14">
+        <v>8.5399527971059125e-05</v>
+      </c>
+      <c r="G14">
+        <v>2.9934415262855455e-06</v>
+      </c>
+      <c r="H14">
+        <v>2.2203337781842499e-14</v>
+      </c>
+      <c r="I14">
+        <v>0.00028473682862453412</v>
+      </c>
+      <c r="J14">
+        <v>6.9352724103412345e-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15">
+        <v>2.2200808649923207e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.99506147864674488</v>
+      </c>
+      <c r="D15">
+        <v>2.2200808649923207e-14</v>
+      </c>
+      <c r="E15">
+        <v>2.205212060513975e-08</v>
+      </c>
+      <c r="F15">
+        <v>0.0039995300505305644</v>
+      </c>
+      <c r="G15">
+        <v>6.3552624198493734e-06</v>
+      </c>
+      <c r="H15">
+        <v>2.2200808649923207e-14</v>
+      </c>
+      <c r="I15">
+        <v>0.0008790891684037509</v>
+      </c>
+      <c r="J15">
+        <v>5.3524819713854402e-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16">
+        <v>2.2203451970314772e-14</v>
+      </c>
+      <c r="C16">
+        <v>0.99959073245264196</v>
+      </c>
+      <c r="D16">
+        <v>2.2203451970314772e-14</v>
+      </c>
+      <c r="E16">
+        <v>1.0830872030748912e-07</v>
+      </c>
+      <c r="F16">
+        <v>0.00013971186888333433</v>
+      </c>
+      <c r="G16">
+        <v>8.8842096320067693e-06</v>
+      </c>
+      <c r="H16">
+        <v>2.2203451970314772e-14</v>
+      </c>
+      <c r="I16">
+        <v>0.00012806119458344349</v>
+      </c>
+      <c r="J16">
+        <v>0.00013250196547230818</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17">
+        <v>2.2202211378990768e-14</v>
+      </c>
+      <c r="C17">
+        <v>0.99908593956775416</v>
+      </c>
+      <c r="D17">
+        <v>2.2202211378990768e-14</v>
+      </c>
+      <c r="E17">
+        <v>3.4266124906130937e-05</v>
+      </c>
+      <c r="F17">
+        <v>6.972485920375944e-06</v>
+      </c>
+      <c r="G17">
+        <v>1.4386587411034386e-06</v>
+      </c>
+      <c r="H17">
+        <v>2.2202211378990768e-14</v>
+      </c>
+      <c r="I17">
+        <v>0.00010063081512987139</v>
+      </c>
+      <c r="J17">
+        <v>0.00077075234748180601</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18">
+        <v>2.2203120918773485e-14</v>
+      </c>
+      <c r="C18">
+        <v>0.99945617463298941</v>
+      </c>
+      <c r="D18">
+        <v>2.2203120918773485e-14</v>
+      </c>
+      <c r="E18">
+        <v>4.2505187775520267e-06</v>
+      </c>
+      <c r="F18">
+        <v>6.4243915565472397e-05</v>
+      </c>
+      <c r="G18">
+        <v>1.4161905973220527e-06</v>
+      </c>
+      <c r="H18">
+        <v>2.2203120918773485e-14</v>
+      </c>
+      <c r="I18">
+        <v>0.00019531051081397228</v>
+      </c>
+      <c r="J18">
+        <v>0.00027860423118974433</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19">
+        <v>2.2199992953993428e-14</v>
+      </c>
+      <c r="C19">
+        <v>0.9920550823176898</v>
+      </c>
+      <c r="D19">
+        <v>2.2199992953993428e-14</v>
+      </c>
+      <c r="E19">
+        <v>0.0074468273649712941</v>
+      </c>
+      <c r="F19">
+        <v>5.4701304983454633e-07</v>
+      </c>
+      <c r="G19">
+        <v>9.3693532292497329e-09</v>
+      </c>
+      <c r="H19">
+        <v>1.0363223047853941e-06</v>
+      </c>
+      <c r="I19">
+        <v>3.4726108431719826e-05</v>
+      </c>
+      <c r="J19">
+        <v>0.00046177150415500088</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20">
+        <v>2.220034639417662e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.220034639417662e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.99722123649067362</v>
+      </c>
+      <c r="E20">
+        <v>0.0010709329365605742</v>
+      </c>
+      <c r="F20">
+        <v>3.2146164527511816e-07</v>
+      </c>
+      <c r="G20">
+        <v>0.0015790809168735275</v>
+      </c>
+      <c r="H20">
+        <v>2.220034639417662e-14</v>
+      </c>
+      <c r="I20">
+        <v>3.3448588767693008e-05</v>
+      </c>
+      <c r="J20">
+        <v>9.497960541286223e-05</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21">
+        <v>4.5511130155046622e-12</v>
+      </c>
+      <c r="C21">
+        <v>4.5511130155046622e-12</v>
+      </c>
+      <c r="D21">
+        <v>0.34136998496575122</v>
+      </c>
+      <c r="E21">
+        <v>0.098183412609561566</v>
+      </c>
+      <c r="F21">
+        <v>0.29696796877954079</v>
+      </c>
+      <c r="G21">
+        <v>0.075314506142661247</v>
+      </c>
+      <c r="H21">
+        <v>4.5511130155046622e-12</v>
+      </c>
+      <c r="I21">
+        <v>0.015796106940606992</v>
+      </c>
+      <c r="J21">
+        <v>0.17236802054822503</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22">
+        <v>2.2199670696423161e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2199670696423161e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.99449172841619715</v>
+      </c>
+      <c r="E22">
+        <v>4.0841211073817676e-05</v>
+      </c>
+      <c r="F22">
+        <v>0.0054674301207634415</v>
+      </c>
+      <c r="G22">
+        <v>2.5185460476266317e-10</v>
+      </c>
+      <c r="H22">
+        <v>2.2199670696423161e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2199670696423161e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.2199670696423161e-14</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23">
+        <v>2.2203587278768876e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2203587278768876e-14</v>
+      </c>
+      <c r="D23">
+        <v>0.99964569887025179</v>
+      </c>
+      <c r="E23">
+        <v>0.0002561358956037195</v>
+      </c>
+      <c r="F23">
+        <v>9.816471276617184e-05</v>
+      </c>
+      <c r="G23">
+        <v>5.2126708189564404e-10</v>
+      </c>
+      <c r="H23">
+        <v>2.2203587278768876e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2203587278768876e-14</v>
+      </c>
+      <c r="J23">
+        <v>2.2203587278768876e-14</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24">
+        <v>2.2200953277537127e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2200953277537127e-14</v>
+      </c>
+      <c r="D24">
+        <v>0.99857248823033995</v>
+      </c>
+      <c r="E24">
+        <v>0.0012567278685812341</v>
+      </c>
+      <c r="F24">
+        <v>2.6407976579952689e-08</v>
+      </c>
+      <c r="G24">
+        <v>6.9709924236887631e-06</v>
+      </c>
+      <c r="H24">
+        <v>9.6544296970865636e-09</v>
+      </c>
+      <c r="I24">
+        <v>0.0001637720628346472</v>
+      </c>
+      <c r="J24">
+        <v>4.783369846499328e-09</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25">
+        <v>2.2204449126033704e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.2204449126033704e-14</v>
+      </c>
+      <c r="D25">
+        <v>0.99999539283564265</v>
+      </c>
+      <c r="E25">
+        <v>4.6071616002986597e-06</v>
+      </c>
+      <c r="F25">
+        <v>2.2204449126033704e-14</v>
+      </c>
+      <c r="G25">
+        <v>7.988332975371261e-13</v>
+      </c>
+      <c r="H25">
+        <v>2.2204449126033704e-14</v>
+      </c>
+      <c r="I25">
+        <v>1.8471422876560757e-12</v>
+      </c>
+      <c r="J25">
+        <v>2.2204449126033704e-14</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26">
+        <v>2.2204457597365733e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.2204457597365733e-14</v>
+      </c>
+      <c r="D26">
+        <v>0.99999882652751815</v>
+      </c>
+      <c r="E26">
+        <v>1.1734666895446014e-06</v>
+      </c>
+      <c r="F26">
+        <v>2.2204457597365733e-14</v>
+      </c>
+      <c r="G26">
+        <v>1.2855520912993782e-13</v>
+      </c>
+      <c r="H26">
+        <v>2.2204457597365733e-14</v>
+      </c>
+      <c r="I26">
+        <v>5.5527715337756634e-12</v>
+      </c>
+      <c r="J26">
+        <v>2.2204457597365733e-14</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27">
+        <v>2.2204460213507969e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2204460213507969e-14</v>
+      </c>
+      <c r="D27">
+        <v>0.99999988691664665</v>
+      </c>
+      <c r="E27">
+        <v>1.126351853269852e-07</v>
+      </c>
+      <c r="F27">
+        <v>2.2204460213507969e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.2204460213507969e-14</v>
+      </c>
+      <c r="H27">
+        <v>4.3348071265413152e-10</v>
+      </c>
+      <c r="I27">
+        <v>1.457608725897653e-11</v>
+      </c>
+      <c r="J27">
+        <v>2.2204460213507969e-14</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28">
+        <v>2.2198932148880036e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2198932148880036e-14</v>
+      </c>
+      <c r="D28">
+        <v>0.95702285020532918</v>
+      </c>
+      <c r="E28">
+        <v>0.042967162117031547</v>
+      </c>
+      <c r="F28">
+        <v>2.2198932148880036e-14</v>
+      </c>
+      <c r="G28">
+        <v>2.2198932148880036e-14</v>
+      </c>
+      <c r="H28">
+        <v>8.7815025904355689e-06</v>
+      </c>
+      <c r="I28">
+        <v>1.2061749377509936e-06</v>
+      </c>
+      <c r="J28">
+        <v>2.2198932148880036e-14</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="D29">
+        <v>0.97919339191463428</v>
+      </c>
+      <c r="E29">
+        <v>0.020806261438165885</v>
+      </c>
+      <c r="F29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="G29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="I29">
+        <v>3.4664706671007063e-07</v>
+      </c>
+      <c r="J29">
+        <v>2.2199771433141539e-14</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="D30">
+        <v>0.98952301119485497</v>
+      </c>
+      <c r="E30">
+        <v>0.010476913020820374</v>
+      </c>
+      <c r="F30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="G30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="H30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="I30">
+        <v>7.5784191364257523e-08</v>
+      </c>
+      <c r="J30">
+        <v>2.219967572115579e-14</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31">
+        <v>1.5314499115528292e-13</v>
+      </c>
+      <c r="C31">
+        <v>1.5314499115528292e-13</v>
+      </c>
+      <c r="D31">
+        <v>1.5314499115528292e-13</v>
+      </c>
+      <c r="E31">
+        <v>0.98606823888127138</v>
+      </c>
+      <c r="F31">
+        <v>0.0006504645958497632</v>
+      </c>
+      <c r="G31">
+        <v>0.0073168580155708656</v>
+      </c>
+      <c r="H31">
+        <v>2.1353875618258698e-06</v>
+      </c>
+      <c r="I31">
+        <v>0.0018371829234089471</v>
+      </c>
+      <c r="J31">
+        <v>0.0041251201958777085</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32">
+        <v>2.2202469040896244e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2202469040896244e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2202469040896244e-14</v>
+      </c>
+      <c r="E32">
+        <v>0.97411000986766816</v>
+      </c>
+      <c r="F32">
+        <v>0.0070195870426844678</v>
+      </c>
+      <c r="G32">
+        <v>0.01874839388629929</v>
+      </c>
+      <c r="H32">
+        <v>2.2202469040896244e-14</v>
+      </c>
+      <c r="I32">
+        <v>0.00011282732675891048</v>
+      </c>
+      <c r="J32">
+        <v>9.1818765002552551e-06</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33">
+        <v>2.2187298696898507e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2187298696898507e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2187298696898507e-14</v>
+      </c>
+      <c r="E33">
+        <v>0.84106116574168699</v>
+      </c>
+      <c r="F33">
+        <v>6.5442664479965225e-06</v>
+      </c>
+      <c r="G33">
+        <v>0.1555633579676777</v>
+      </c>
+      <c r="H33">
+        <v>2.2187298696898507e-14</v>
+      </c>
+      <c r="I33">
+        <v>4.8849374055553221e-05</v>
+      </c>
+      <c r="J33">
+        <v>0.0033200826500429507</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34">
+        <v>9.8557798662773332e-14</v>
+      </c>
+      <c r="C34">
+        <v>9.8557798662773332e-14</v>
+      </c>
+      <c r="D34">
+        <v>9.8557798662773194e-14</v>
+      </c>
+      <c r="E34">
+        <v>0.99775956346865202</v>
+      </c>
+      <c r="F34">
+        <v>0.001079015341828969</v>
+      </c>
+      <c r="G34">
+        <v>0.0011422180757750167</v>
+      </c>
+      <c r="H34">
+        <v>9.8557798662773194e-14</v>
+      </c>
+      <c r="I34">
+        <v>1.7824953870412105e-05</v>
+      </c>
+      <c r="J34">
+        <v>1.3781594794228101e-06</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35">
+        <v>5.8512449034889906e-14</v>
+      </c>
+      <c r="C35">
+        <v>5.8512449034889906e-14</v>
+      </c>
+      <c r="D35">
+        <v>5.8512449034890007e-14</v>
+      </c>
+      <c r="E35">
+        <v>0.98917974024768207</v>
+      </c>
+      <c r="F35">
+        <v>0.002643129696666848</v>
+      </c>
+      <c r="G35">
+        <v>0.00014556784826860898</v>
+      </c>
+      <c r="H35">
+        <v>6.3450421314478192e-13</v>
+      </c>
+      <c r="I35">
+        <v>0.0024800671351467071</v>
+      </c>
+      <c r="J35">
+        <v>0.0055514950714257846</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36">
+        <v>2.220471759443782e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.220471759443782e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.220471759443782e-14</v>
+      </c>
+      <c r="E36">
+        <v>0.96633953131089978</v>
+      </c>
+      <c r="F36">
+        <v>0.012590201470699664</v>
+      </c>
+      <c r="G36">
+        <v>0.021069848392342456</v>
+      </c>
+      <c r="H36">
+        <v>2.220471759443782e-14</v>
+      </c>
+      <c r="I36">
+        <v>1.5305417625423198e-07</v>
+      </c>
+      <c r="J36">
+        <v>2.6577179304054315e-07</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37">
+        <v>2.220501557259711e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.220501557259711e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.220501557259711e-14</v>
+      </c>
+      <c r="E37">
+        <v>0.84378838928271083</v>
+      </c>
+      <c r="F37">
+        <v>0.0011153098835596207</v>
+      </c>
+      <c r="G37">
+        <v>0.038857710047979915</v>
+      </c>
+      <c r="H37">
+        <v>6.4605893976301313e-12</v>
+      </c>
+      <c r="I37">
+        <v>0.11618010475898469</v>
+      </c>
+      <c r="J37">
+        <v>5.8486020237810521e-05</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B38">
+        <v>1.5600580006510176e-13</v>
+      </c>
+      <c r="C38">
+        <v>1.5600580006510176e-13</v>
+      </c>
+      <c r="D38">
+        <v>1.5600580006510156e-13</v>
+      </c>
+      <c r="E38">
+        <v>0.97715954003167793</v>
+      </c>
+      <c r="F38">
+        <v>1.0924579819862412e-06</v>
+      </c>
+      <c r="G38">
+        <v>0.02020759718166059</v>
+      </c>
+      <c r="H38">
+        <v>0.0026293517819315358</v>
+      </c>
+      <c r="I38">
+        <v>2.3903269186467082e-06</v>
+      </c>
+      <c r="J38">
+        <v>2.8219361338526129e-08</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39">
+        <v>2.2194446566908284e-14</v>
+      </c>
+      <c r="C39">
+        <v>2.2194446566908284e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2194446566908284e-14</v>
+      </c>
+      <c r="E39">
+        <v>3.7657539985639796e-05</v>
+      </c>
+      <c r="F39">
+        <v>0.69846172480930768</v>
+      </c>
+      <c r="G39">
+        <v>0.00055433741687212733</v>
+      </c>
+      <c r="H39">
+        <v>2.2194446566908284e-14</v>
+      </c>
+      <c r="I39">
+        <v>9.4009660370650814e-07</v>
+      </c>
+      <c r="J39">
+        <v>0.30094534013714203</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40">
+        <v>2.2199678563548701e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2199678563548701e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2199678563548701e-14</v>
+      </c>
+      <c r="E40">
+        <v>0.00447325441858425</v>
+      </c>
+      <c r="F40">
+        <v>0.99547136116897572</v>
+      </c>
+      <c r="G40">
+        <v>2.6683031670266231e-05</v>
+      </c>
+      <c r="H40">
+        <v>2.2199678563548701e-14</v>
+      </c>
+      <c r="I40">
+        <v>2.8045436892775873e-05</v>
+      </c>
+      <c r="J40">
+        <v>6.5594378826531969e-07</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41">
+        <v>1.2189470376908884e-13</v>
+      </c>
+      <c r="C41">
+        <v>0.28283219903483292</v>
+      </c>
+      <c r="D41">
+        <v>1.2189470376908884e-13</v>
+      </c>
+      <c r="E41">
+        <v>0.056789394008273146</v>
+      </c>
+      <c r="F41">
+        <v>0.65022220175075229</v>
+      </c>
+      <c r="G41">
+        <v>0.0094409373655531224</v>
+      </c>
+      <c r="H41">
+        <v>1.2189470376908853e-13</v>
+      </c>
+      <c r="I41">
+        <v>0.00071399046548807079</v>
+      </c>
+      <c r="J41">
+        <v>1.2773747347913e-06</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42">
+        <v>1.0665436166631762e-13</v>
+      </c>
+      <c r="C42">
+        <v>1.0665436166631762e-13</v>
+      </c>
+      <c r="D42">
+        <v>1.0665436166631775e-13</v>
+      </c>
+      <c r="E42">
+        <v>0.00042896917880110073</v>
+      </c>
+      <c r="F42">
+        <v>0.97572275488164428</v>
+      </c>
+      <c r="G42">
+        <v>0.019822166638114022</v>
+      </c>
+      <c r="H42">
+        <v>1.066543616663147e-13</v>
+      </c>
+      <c r="I42">
+        <v>0.0040042167695299889</v>
+      </c>
+      <c r="J42">
+        <v>2.1892531483850375e-05</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43">
+        <v>2.2203187007013024e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.2203187007013024e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2203187007013024e-14</v>
+      </c>
+      <c r="E43">
+        <v>0.00017474897262795109</v>
+      </c>
+      <c r="F43">
+        <v>0.99910284953509065</v>
+      </c>
+      <c r="G43">
+        <v>0.00050821242426983917</v>
+      </c>
+      <c r="H43">
+        <v>2.2203187007013024e-14</v>
+      </c>
+      <c r="I43">
+        <v>8.7390595971919467e-05</v>
+      </c>
+      <c r="J43">
+        <v>0.00012679847195084704</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44">
+        <v>2.2199594712884727e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2199594712884727e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2199594712884727e-14</v>
+      </c>
+      <c r="E44">
+        <v>0.013988358464260803</v>
+      </c>
+      <c r="F44">
+        <v>0.9859975154652163</v>
+      </c>
+      <c r="G44">
+        <v>3.1511272630139606e-11</v>
+      </c>
+      <c r="H44">
+        <v>2.2199594712884727e-14</v>
+      </c>
+      <c r="I44">
+        <v>1.4126038896015555e-05</v>
+      </c>
+      <c r="J44">
+        <v>2.6919841834792935e-14</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45">
+        <v>2.2790912795407753e-13</v>
+      </c>
+      <c r="C45">
+        <v>2.2790912795407753e-13</v>
+      </c>
+      <c r="D45">
+        <v>2.2790912795407753e-13</v>
+      </c>
+      <c r="E45">
+        <v>0.12941833567033148</v>
+      </c>
+      <c r="F45">
+        <v>0.6927675383178441</v>
+      </c>
+      <c r="G45">
+        <v>0.069640037199544466</v>
+      </c>
+      <c r="H45">
+        <v>2.2790912795407693e-13</v>
+      </c>
+      <c r="I45">
+        <v>0.0013146738344050318</v>
+      </c>
+      <c r="J45">
+        <v>0.10685941497696327</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46">
+        <v>2.2201118500606599e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2201118500606599e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2201118500606599e-14</v>
+      </c>
+      <c r="E46">
+        <v>0.0019291740411428785</v>
+      </c>
+      <c r="F46">
+        <v>0.99803692128652521</v>
+      </c>
+      <c r="G46">
+        <v>3.3151097330653846e-05</v>
+      </c>
+      <c r="H46">
+        <v>2.2201118500606599e-14</v>
+      </c>
+      <c r="I46">
+        <v>4.351023217275234e-09</v>
+      </c>
+      <c r="J46">
+        <v>7.4922388949858668e-07</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47">
+        <v>2.2204440374070431e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2204440374070431e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2204440374070431e-14</v>
+      </c>
+      <c r="E47">
+        <v>8.1978285522654219e-06</v>
+      </c>
+      <c r="F47">
+        <v>0.99999180172207214</v>
+      </c>
+      <c r="G47">
+        <v>2.3063021970060684e-10</v>
+      </c>
+      <c r="H47">
+        <v>2.2204440374070431e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.1863430928007878e-10</v>
+      </c>
+      <c r="J47">
+        <v>2.2204440374070431e-14</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48">
+        <v>2.2204410279393638e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2204410279393638e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2204410279393638e-14</v>
+      </c>
+      <c r="E48">
+        <v>5.6667210761919635e-09</v>
+      </c>
+      <c r="F48">
+        <v>0.99997955266103478</v>
+      </c>
+      <c r="G48">
+        <v>2.5379629257796038e-06</v>
+      </c>
+      <c r="H48">
+        <v>2.2204410279393638e-14</v>
+      </c>
+      <c r="I48">
+        <v>1.7838571348194289e-05</v>
+      </c>
+      <c r="J48">
+        <v>6.5137881438736652e-08</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49">
+        <v>2.2203008072457916e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.2203008072457916e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2203008072457916e-14</v>
+      </c>
+      <c r="E49">
+        <v>0.0070409126670218734</v>
+      </c>
+      <c r="F49">
+        <v>6.6524737288682908e-05</v>
+      </c>
+      <c r="G49">
+        <v>0.98314821687247933</v>
+      </c>
+      <c r="H49">
+        <v>2.2203008072457916e-14</v>
+      </c>
+      <c r="I49">
+        <v>6.1972367884501639e-06</v>
+      </c>
+      <c r="J49">
+        <v>0.0097381484863328857</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B50">
+        <v>2.2200027119139846e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2200027119139846e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2200027119139846e-14</v>
+      </c>
+      <c r="E50">
+        <v>0.016982732815986577</v>
+      </c>
+      <c r="F50">
+        <v>2.084098862543627e-06</v>
+      </c>
+      <c r="G50">
+        <v>0.98231215006214112</v>
+      </c>
+      <c r="H50">
+        <v>2.2200027119139846e-14</v>
+      </c>
+      <c r="I50">
+        <v>1.8635386202699033e-08</v>
+      </c>
+      <c r="J50">
+        <v>0.00070301438753465895</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51">
+        <v>2.2199629631658348e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2199629631658348e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2199629631658348e-14</v>
+      </c>
+      <c r="E51">
+        <v>0.025369765768986328</v>
+      </c>
+      <c r="F51">
+        <v>1.554886949333016e-05</v>
+      </c>
+      <c r="G51">
+        <v>0.97461291096676517</v>
+      </c>
+      <c r="H51">
+        <v>2.2199629631658348e-14</v>
+      </c>
+      <c r="I51">
+        <v>9.0958763376841439e-08</v>
+      </c>
+      <c r="J51">
+        <v>1.683435903006754e-06</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52">
+        <v>4.4082015413031853e-14</v>
+      </c>
+      <c r="C52">
+        <v>4.4082015413031853e-14</v>
+      </c>
+      <c r="D52">
+        <v>4.408201541303184e-14</v>
+      </c>
+      <c r="E52">
+        <v>0.00022106963691390433</v>
+      </c>
+      <c r="F52">
+        <v>0.0023983507678128229</v>
+      </c>
+      <c r="G52">
+        <v>0.99251874966182596</v>
+      </c>
+      <c r="H52">
+        <v>4.4082015413036819e-14</v>
+      </c>
+      <c r="I52">
+        <v>5.0362324897150739e-07</v>
+      </c>
+      <c r="J52">
+        <v>0.0048613263100219517</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53">
+        <v>6.9072809330645427e-14</v>
+      </c>
+      <c r="C53">
+        <v>6.9072809330645427e-14</v>
+      </c>
+      <c r="D53">
+        <v>6.9072809330645427e-14</v>
+      </c>
+      <c r="E53">
+        <v>0.012648170515750684</v>
+      </c>
+      <c r="F53">
+        <v>0.00068096854131851757</v>
+      </c>
+      <c r="G53">
+        <v>0.97586868965261175</v>
+      </c>
+      <c r="H53">
+        <v>6.907280933066364e-14</v>
+      </c>
+      <c r="I53">
+        <v>0.0067012631728614958</v>
+      </c>
+      <c r="J53">
+        <v>0.0041009081171812858</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54">
+        <v>3.7990973541846113e-14</v>
+      </c>
+      <c r="C54">
+        <v>3.7990973541846113e-14</v>
+      </c>
+      <c r="D54">
+        <v>3.799097354184612e-14</v>
+      </c>
+      <c r="E54">
+        <v>0.018371962747224233</v>
+      </c>
+      <c r="F54">
+        <v>7.1964688229150648e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.9686821729738625</v>
+      </c>
+      <c r="H54">
+        <v>3.799097354185156e-14</v>
+      </c>
+      <c r="I54">
+        <v>0.00057203559188609583</v>
+      </c>
+      <c r="J54">
+        <v>0.012301863998646242</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55">
+        <v>2.2197163729973113e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.2197163729973113e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.2197163729973113e-14</v>
+      </c>
+      <c r="E55">
+        <v>0.085542092578785686</v>
+      </c>
+      <c r="F55">
+        <v>2.1137388889849937e-05</v>
+      </c>
+      <c r="G55">
+        <v>0.91440205234005201</v>
+      </c>
+      <c r="H55">
+        <v>2.2197163729973113e-14</v>
+      </c>
+      <c r="I55">
+        <v>3.4403396019479351e-05</v>
+      </c>
+      <c r="J55">
+        <v>3.1429616406320259e-07</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56">
+        <v>4.0364936363821973e-14</v>
+      </c>
+      <c r="C56">
+        <v>4.0364936363821973e-14</v>
+      </c>
+      <c r="D56">
+        <v>4.0364936363821992e-14</v>
+      </c>
+      <c r="E56">
+        <v>0.001324707200902078</v>
+      </c>
+      <c r="F56">
+        <v>0.009589560578842608</v>
+      </c>
+      <c r="G56">
+        <v>0.98813860789854935</v>
+      </c>
+      <c r="H56">
+        <v>5.9917573357930825e-08</v>
+      </c>
+      <c r="I56">
+        <v>0.00094681877188961374</v>
+      </c>
+      <c r="J56">
+        <v>2.4563212192591202e-07</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57">
+        <v>4.2120235726529821e-14</v>
+      </c>
+      <c r="C57">
+        <v>4.2120235726529821e-14</v>
+      </c>
+      <c r="D57">
+        <v>4.2120235726529821e-14</v>
+      </c>
+      <c r="E57">
+        <v>0.00030865158118906206</v>
+      </c>
+      <c r="F57">
+        <v>0.098953402451098724</v>
+      </c>
+      <c r="G57">
+        <v>0.89941546223597479</v>
+      </c>
+      <c r="H57">
+        <v>4.6577078582629639e-05</v>
+      </c>
+      <c r="I57">
+        <v>0.0012584419792543943</v>
+      </c>
+      <c r="J57">
+        <v>1.7464673774014508e-05</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B58">
+        <v>2.221842793688047e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.221842793688047e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.221842793688047e-14</v>
+      </c>
+      <c r="E58">
+        <v>0.00061691206441224177</v>
+      </c>
+      <c r="F58">
+        <v>0.0045973917896859522</v>
+      </c>
+      <c r="G58">
+        <v>0.97396545489253017</v>
+      </c>
+      <c r="H58">
+        <v>2.221842793688047e-14</v>
+      </c>
+      <c r="I58">
+        <v>0.013633875236374042</v>
+      </c>
+      <c r="J58">
+        <v>0.007186366016908829</v>
+      </c>
+      <c r="K58">
+        <v>6</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59">
+        <v>6.5648047318601288e-14</v>
+      </c>
+      <c r="C59">
+        <v>6.5648047318601288e-14</v>
+      </c>
+      <c r="D59">
+        <v>6.5648047318601288e-14</v>
+      </c>
+      <c r="E59">
+        <v>0.00096760655263259082</v>
+      </c>
+      <c r="F59">
+        <v>0.0099540934163360895</v>
+      </c>
+      <c r="G59">
+        <v>0.97394998221555051</v>
+      </c>
+      <c r="H59">
+        <v>3.7108644809593257e-13</v>
+      </c>
+      <c r="I59">
+        <v>0.0028856590211021878</v>
+      </c>
+      <c r="J59">
+        <v>0.012242658793810464</v>
+      </c>
+      <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60">
+        <v>2.2204125349903008e-14</v>
+      </c>
+      <c r="C60">
+        <v>2.2204125349903008e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2204125349903008e-14</v>
+      </c>
+      <c r="E60">
+        <v>0.0069007076698417939</v>
+      </c>
+      <c r="F60">
+        <v>0.0084818516099843758</v>
+      </c>
+      <c r="G60">
+        <v>0.00055593055502833747</v>
+      </c>
+      <c r="H60">
+        <v>0.98386023249905274</v>
+      </c>
+      <c r="I60">
+        <v>0.0001946038223110595</v>
+      </c>
+      <c r="J60">
+        <v>6.6738437150481155e-06</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61">
+        <v>2.2204409110142729e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2204409110142729e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2204409110142729e-14</v>
+      </c>
+      <c r="E61">
+        <v>0.0067436231928261472</v>
+      </c>
+      <c r="F61">
+        <v>0.0075443527072499815</v>
+      </c>
+      <c r="G61">
+        <v>0.0014776969630973474</v>
+      </c>
+      <c r="H61">
+        <v>0.98407859257520092</v>
+      </c>
+      <c r="I61">
+        <v>0.00015400215238500024</v>
+      </c>
+      <c r="J61">
+        <v>1.7324091739497961e-06</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62">
+        <v>2.2195380770956452e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2195380770956452e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2195380770956452e-14</v>
+      </c>
+      <c r="E62">
+        <v>0.00030471087728714845</v>
+      </c>
+      <c r="F62">
+        <v>2.2011142152952096e-06</v>
+      </c>
+      <c r="G62">
+        <v>0.026761825655917795</v>
+      </c>
+      <c r="H62">
+        <v>0.9716973072296462</v>
+      </c>
+      <c r="I62">
+        <v>0.00085071998648457241</v>
+      </c>
+      <c r="J62">
+        <v>0.00038323513638235902</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63">
+        <v>2.2204781443406904e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2204781443406904e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.2204781443406904e-14</v>
+      </c>
+      <c r="E63">
+        <v>0.0011508691165682163</v>
+      </c>
+      <c r="F63">
+        <v>0.0080500163576439996</v>
+      </c>
+      <c r="G63">
+        <v>0.0065343341168592507</v>
+      </c>
+      <c r="H63">
+        <v>0.98216401292518907</v>
+      </c>
+      <c r="I63">
+        <v>0.00090482997796961567</v>
+      </c>
+      <c r="J63">
+        <v>0.001195937505703225</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64">
+        <v>2.2200443034431934e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2200443034431934e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2200443034431934e-14</v>
+      </c>
+      <c r="E64">
+        <v>0.0052447179207319467</v>
+      </c>
+      <c r="F64">
+        <v>0.031533646016895366</v>
+      </c>
+      <c r="G64">
+        <v>0.0026311661310944924</v>
+      </c>
+      <c r="H64">
+        <v>0.96027648769967089</v>
+      </c>
+      <c r="I64">
+        <v>4.02011124839487e-05</v>
+      </c>
+      <c r="J64">
+        <v>0.00027378111905677248</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65">
+        <v>2.2190575054248761e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2190575054248761e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2190575054248761e-14</v>
+      </c>
+      <c r="E65">
+        <v>0.0059251083107620178</v>
+      </c>
+      <c r="F65">
+        <v>0.00018512908562196305</v>
+      </c>
+      <c r="G65">
+        <v>0.082790780964028754</v>
+      </c>
+      <c r="H65">
+        <v>0.91083975300644393</v>
+      </c>
+      <c r="I65">
+        <v>1.9402592674966993e-06</v>
+      </c>
+      <c r="J65">
+        <v>0.00025728837380938931</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66">
+        <v>2.2201224776683114e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2201224776683114e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2201224776683114e-14</v>
+      </c>
+      <c r="E66">
+        <v>0.00030045932284103585</v>
+      </c>
+      <c r="F66">
+        <v>0.0085883619279256418</v>
+      </c>
+      <c r="G66">
+        <v>0.0018117673966301518</v>
+      </c>
+      <c r="H66">
+        <v>0.98924112667215702</v>
+      </c>
+      <c r="I66">
+        <v>8.3680223025478787e-06</v>
+      </c>
+      <c r="J66">
+        <v>4.9916658077123998e-05</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67">
+        <v>2.2200563205947105e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.2200563205947105e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.2200563205947105e-14</v>
+      </c>
+      <c r="E67">
+        <v>0.00065426315935707027</v>
+      </c>
+      <c r="F67">
+        <v>0.00076635921887058234</v>
+      </c>
+      <c r="G67">
+        <v>0.0087585636037954984</v>
+      </c>
+      <c r="H67">
+        <v>0.98960014011964037</v>
+      </c>
+      <c r="I67">
+        <v>0.00021761720331367574</v>
+      </c>
+      <c r="J67">
+        <v>3.0566949562522187e-06</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B68">
+        <v>2.2199865765632371e-14</v>
+      </c>
+      <c r="C68">
+        <v>2.2199865765632371e-14</v>
+      </c>
+      <c r="D68">
+        <v>2.2199865765632371e-14</v>
+      </c>
+      <c r="E68">
+        <v>0.00072551265508071134</v>
+      </c>
+      <c r="F68">
+        <v>2.560451161638397e-05</v>
+      </c>
+      <c r="G68">
+        <v>0.0097883956733385673</v>
+      </c>
+      <c r="H68">
+        <v>0.98923865223801777</v>
+      </c>
+      <c r="I68">
+        <v>0.0001966322564104803</v>
+      </c>
+      <c r="J68">
+        <v>2.520266546961614e-05</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69">
+        <v>2.2200292019363626e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2200292019363626e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2200292019363626e-14</v>
+      </c>
+      <c r="E69">
+        <v>0.0074402224682671384</v>
+      </c>
+      <c r="F69">
+        <v>3.7390476833715676e-08</v>
+      </c>
+      <c r="G69">
+        <v>0.00062585656526197638</v>
+      </c>
+      <c r="H69">
+        <v>0.99172498054427982</v>
+      </c>
+      <c r="I69">
+        <v>0.00020828408558287232</v>
+      </c>
+      <c r="J69">
+        <v>6.1894606481296098e-07</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B70">
+        <v>2.2202590610702268e-14</v>
+      </c>
+      <c r="C70">
+        <v>2.2202590610702268e-14</v>
+      </c>
+      <c r="D70">
+        <v>2.2202590610702268e-14</v>
+      </c>
+      <c r="E70">
+        <v>0.0026084134762733848</v>
+      </c>
+      <c r="F70">
+        <v>2.2202590610702268e-14</v>
+      </c>
+      <c r="G70">
+        <v>1.0639779498820271e-05</v>
+      </c>
+      <c r="H70">
+        <v>0.99461757329292788</v>
+      </c>
+      <c r="I70">
+        <v>0.0027417861855291077</v>
+      </c>
+      <c r="J70">
+        <v>2.1587265681933249e-05</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B71">
+        <v>2.2207601947944268e-14</v>
+      </c>
+      <c r="C71">
+        <v>2.2207601947944268e-14</v>
+      </c>
+      <c r="D71">
+        <v>2.2207601947944268e-14</v>
+      </c>
+      <c r="E71">
+        <v>4.3806714467107534e-05</v>
+      </c>
+      <c r="F71">
+        <v>0.012319960927560058</v>
+      </c>
+      <c r="G71">
+        <v>0.022598964842094733</v>
+      </c>
+      <c r="H71">
+        <v>0.96465193427212248</v>
+      </c>
+      <c r="I71">
+        <v>1.6016443593447572e-05</v>
+      </c>
+      <c r="J71">
+        <v>0.0003693168000955172</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72">
+        <v>2.2200285491444698e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.2200285491444698e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.2200285491444698e-14</v>
+      </c>
+      <c r="E72">
+        <v>1.4237473941309036e-05</v>
+      </c>
+      <c r="F72">
+        <v>3.682372450760197e-07</v>
+      </c>
+      <c r="G72">
+        <v>0.022508785051320777</v>
+      </c>
+      <c r="H72">
+        <v>2.1296769328104477e-13</v>
+      </c>
+      <c r="I72">
+        <v>0.97386915102167093</v>
+      </c>
+      <c r="J72">
+        <v>0.0036074582155423583</v>
+      </c>
+      <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B73">
+        <v>0.06432995904262076</v>
+      </c>
+      <c r="C73">
+        <v>2.2210075021329448e-14</v>
+      </c>
+      <c r="D73">
+        <v>2.2210075021329448e-14</v>
+      </c>
+      <c r="E73">
+        <v>3.6751790140634994e-06</v>
+      </c>
+      <c r="F73">
+        <v>8.9278831444044908e-06</v>
+      </c>
+      <c r="G73">
+        <v>0.011868226460742126</v>
+      </c>
+      <c r="H73">
+        <v>2.2210075021329448e-14</v>
+      </c>
+      <c r="I73">
+        <v>0.91888535634157842</v>
+      </c>
+      <c r="J73">
+        <v>0.0049038550928335711</v>
+      </c>
+      <c r="K73">
+        <v>8</v>
+      </c>
+      <c r="L73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74">
+        <v>2.22029096547707e-14</v>
+      </c>
+      <c r="C74">
+        <v>2.22029096547707e-14</v>
+      </c>
+      <c r="D74">
+        <v>2.22029096547707e-14</v>
+      </c>
+      <c r="E74">
+        <v>1.3315540465866248e-05</v>
+      </c>
+      <c r="F74">
+        <v>2.5139719118136925e-07</v>
+      </c>
+      <c r="G74">
+        <v>0.012111210355439116</v>
+      </c>
+      <c r="H74">
+        <v>1.8296399721519943e-13</v>
+      </c>
+      <c r="I74">
+        <v>0.98287015106978592</v>
+      </c>
+      <c r="J74">
+        <v>0.0050050716368684198</v>
+      </c>
+      <c r="K74">
+        <v>8</v>
+      </c>
+      <c r="L74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75">
+        <v>2.2203237706849575e-14</v>
+      </c>
+      <c r="C75">
+        <v>2.2203237706849575e-14</v>
+      </c>
+      <c r="D75">
+        <v>2.2203237706849575e-14</v>
+      </c>
+      <c r="E75">
+        <v>0.0082990511235494606</v>
+      </c>
+      <c r="F75">
+        <v>0.0021550494452340987</v>
+      </c>
+      <c r="G75">
+        <v>0.0033226980081597474</v>
+      </c>
+      <c r="H75">
+        <v>1.6599350878182425e-10</v>
+      </c>
+      <c r="I75">
+        <v>0.9858941561419331</v>
+      </c>
+      <c r="J75">
+        <v>0.00032904511506346199</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B76">
+        <v>2.2200572186841207e-14</v>
+      </c>
+      <c r="C76">
+        <v>2.2200572186841207e-14</v>
+      </c>
+      <c r="D76">
+        <v>2.2200572186841207e-14</v>
+      </c>
+      <c r="E76">
+        <v>0.0025898389879471929</v>
+      </c>
+      <c r="F76">
+        <v>1.7736668522857037e-12</v>
+      </c>
+      <c r="G76">
+        <v>0.0009490092583018748</v>
+      </c>
+      <c r="H76">
+        <v>2.8751941255193646e-08</v>
+      </c>
+      <c r="I76">
+        <v>0.99644944810913749</v>
+      </c>
+      <c r="J76">
+        <v>1.1674890831997506e-05</v>
+      </c>
+      <c r="K76">
+        <v>8</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77">
+        <v>2.2201424827564947e-14</v>
+      </c>
+      <c r="C77">
+        <v>2.2201424827564947e-14</v>
+      </c>
+      <c r="D77">
+        <v>2.2201424827564947e-14</v>
+      </c>
+      <c r="E77">
+        <v>0.0021616182223527561</v>
+      </c>
+      <c r="F77">
+        <v>2.4794016358899814e-10</v>
+      </c>
+      <c r="G77">
+        <v>0.002350040927395046</v>
+      </c>
+      <c r="H77">
+        <v>5.449151421767745e-09</v>
+      </c>
+      <c r="I77">
+        <v>0.99541217485243128</v>
+      </c>
+      <c r="J77">
+        <v>7.6160300662890827e-05</v>
+      </c>
+      <c r="K77">
+        <v>8</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B78">
+        <v>2.2201460022235615e-14</v>
+      </c>
+      <c r="C78">
+        <v>2.2201460022235615e-14</v>
+      </c>
+      <c r="D78">
+        <v>2.2201460022235615e-14</v>
+      </c>
+      <c r="E78">
+        <v>0.00051092887806157322</v>
+      </c>
+      <c r="F78">
+        <v>0.00032966865164305552</v>
+      </c>
+      <c r="G78">
+        <v>4.2747674957110406e-06</v>
+      </c>
+      <c r="H78">
+        <v>2.2201460022235615e-14</v>
+      </c>
+      <c r="I78">
+        <v>0.99636100744511069</v>
+      </c>
+      <c r="J78">
+        <v>0.0027941202576001341</v>
+      </c>
+      <c r="K78">
+        <v>8</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79">
+        <v>2.2200291854071433e-14</v>
+      </c>
+      <c r="C79">
+        <v>2.2200291854071433e-14</v>
+      </c>
+      <c r="D79">
+        <v>2.2200291854071433e-14</v>
+      </c>
+      <c r="E79">
+        <v>9.1553548256549354e-05</v>
+      </c>
+      <c r="F79">
+        <v>0.0019861171262123907</v>
+      </c>
+      <c r="G79">
+        <v>2.1733171874729781e-05</v>
+      </c>
+      <c r="H79">
+        <v>2.2200291854071433e-14</v>
+      </c>
+      <c r="I79">
+        <v>0.99600680986424062</v>
+      </c>
+      <c r="J79">
+        <v>0.0018937862893268708</v>
+      </c>
+      <c r="K79">
+        <v>8</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80">
+        <v>2.2211088413516334e-14</v>
+      </c>
+      <c r="C80">
+        <v>2.2211088413516334e-14</v>
+      </c>
+      <c r="D80">
+        <v>2.2211088413516334e-14</v>
+      </c>
+      <c r="E80">
+        <v>0.00053093524423896094</v>
+      </c>
+      <c r="F80">
+        <v>0.032407392012193441</v>
+      </c>
+      <c r="G80">
+        <v>0.01102532659669047</v>
+      </c>
+      <c r="H80">
+        <v>2.2211088413516334e-14</v>
+      </c>
+      <c r="I80">
+        <v>0.94537864371754143</v>
+      </c>
+      <c r="J80">
+        <v>0.010657702429246791</v>
+      </c>
+      <c r="K80">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81">
+        <v>2.2212135558465209e-14</v>
+      </c>
+      <c r="C81">
+        <v>2.2212135558465209e-14</v>
+      </c>
+      <c r="D81">
+        <v>2.2212135558465209e-14</v>
+      </c>
+      <c r="E81">
+        <v>0.32052787137242095</v>
+      </c>
+      <c r="F81">
+        <v>1.6096219342141331e-08</v>
+      </c>
+      <c r="G81">
+        <v>0.0051001126556196909</v>
+      </c>
+      <c r="H81">
+        <v>2.2212135558465209e-14</v>
+      </c>
+      <c r="I81">
+        <v>0.67437199889358002</v>
+      </c>
+      <c r="J81">
+        <v>9.8207116769363242e-10</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B82">
+        <v>2.2198109630326895e-14</v>
+      </c>
+      <c r="C82">
+        <v>2.2198109630326895e-14</v>
+      </c>
+      <c r="D82">
+        <v>2.2198109630326895e-14</v>
+      </c>
+      <c r="E82">
+        <v>0.0010508062387189093</v>
+      </c>
+      <c r="F82">
+        <v>0.0001517394677056005</v>
+      </c>
+      <c r="G82">
+        <v>0.020567234272846749</v>
+      </c>
+      <c r="H82">
+        <v>2.4779527856357841e-07</v>
+      </c>
+      <c r="I82">
+        <v>0.97697063570383713</v>
+      </c>
+      <c r="J82">
+        <v>0.0012593365215463053</v>
+      </c>
+      <c r="K82">
+        <v>8</v>
+      </c>
+      <c r="L82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B83">
+        <v>2.2200473766056324e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2200473766056324e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2200473766056324e-14</v>
+      </c>
+      <c r="E83">
+        <v>3.1692144333498428e-05</v>
+      </c>
+      <c r="F83">
+        <v>0.011877284032693055</v>
+      </c>
+      <c r="G83">
+        <v>0.001196684720819102</v>
+      </c>
+      <c r="H83">
+        <v>4.0690003592117161e-10</v>
+      </c>
+      <c r="I83">
+        <v>0.00015691750472668979</v>
+      </c>
+      <c r="J83">
+        <v>0.98673742119046104</v>
+      </c>
+      <c r="K83">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B84">
+        <v>3.4595911689788227e-14</v>
+      </c>
+      <c r="C84">
+        <v>3.4595911689788227e-14</v>
+      </c>
+      <c r="D84">
+        <v>3.4595911689788284e-14</v>
+      </c>
+      <c r="E84">
+        <v>0.00042350843012261608</v>
+      </c>
+      <c r="F84">
+        <v>0.050013834632325373</v>
+      </c>
+      <c r="G84">
+        <v>0.00031718426522750655</v>
+      </c>
+      <c r="H84">
+        <v>5.2229480796277782e-05</v>
+      </c>
+      <c r="I84">
+        <v>6.3395832890610971e-05</v>
+      </c>
+      <c r="J84">
+        <v>0.9491298473585339</v>
+      </c>
+      <c r="K84">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85">
+        <v>3.2719381577170261e-14</v>
+      </c>
+      <c r="C85">
+        <v>3.2719381577170261e-14</v>
+      </c>
+      <c r="D85">
+        <v>3.2719381577170235e-14</v>
+      </c>
+      <c r="E85">
+        <v>0.0064413562035515806</v>
+      </c>
+      <c r="F85">
+        <v>0.0010226301981428397</v>
+      </c>
+      <c r="G85">
+        <v>0.0002165099045111646</v>
+      </c>
+      <c r="H85">
+        <v>3.271938157717021e-14</v>
+      </c>
+      <c r="I85">
+        <v>0.0062209274377662939</v>
+      </c>
+      <c r="J85">
+        <v>0.98609857625589725</v>
+      </c>
+      <c r="K85">
+        <v>9</v>
+      </c>
+      <c r="L85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86">
+        <v>2.2201727133324622e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.2201727133324622e-14</v>
+      </c>
+      <c r="D86">
+        <v>2.2201727133324622e-14</v>
+      </c>
+      <c r="E86">
+        <v>0.00032257488945694067</v>
+      </c>
+      <c r="F86">
+        <v>0.0048075565191766463</v>
+      </c>
+      <c r="G86">
+        <v>0.0080998081903640405</v>
+      </c>
+      <c r="H86">
+        <v>2.2201727133324622e-14</v>
+      </c>
+      <c r="I86">
+        <v>0.0003636867916722873</v>
+      </c>
+      <c r="J86">
+        <v>0.98640637360924133</v>
+      </c>
+      <c r="K86">
+        <v>9</v>
+      </c>
+      <c r="L86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B87">
+        <v>2.2201365813794444e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2201365813794444e-14</v>
+      </c>
+      <c r="D87">
+        <v>2.2201365813794444e-14</v>
+      </c>
+      <c r="E87">
+        <v>0.00076133000017831879</v>
+      </c>
+      <c r="F87">
+        <v>0.0067897044705324851</v>
+      </c>
+      <c r="G87">
+        <v>0.0016484032538770634</v>
+      </c>
+      <c r="H87">
+        <v>1.5494792183655134e-12</v>
+      </c>
+      <c r="I87">
+        <v>0.0019902426381672566</v>
+      </c>
+      <c r="J87">
+        <v>0.98881031963562871</v>
+      </c>
+      <c r="K87">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88">
+        <v>2.2203388571623438e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2203388571623438e-14</v>
+      </c>
+      <c r="D88">
+        <v>2.2203388571623438e-14</v>
+      </c>
+      <c r="E88">
+        <v>0.00016333879404559405</v>
+      </c>
+      <c r="F88">
+        <v>0.0020456018010435984</v>
+      </c>
+      <c r="G88">
+        <v>0.0054202925955224458</v>
+      </c>
+      <c r="H88">
+        <v>3.6195461566985752e-09</v>
+      </c>
+      <c r="I88">
+        <v>0.0079988705883417346</v>
+      </c>
+      <c r="J88">
+        <v>0.98437189260143387</v>
+      </c>
+      <c r="K88">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B89">
+        <v>2.2193114397957083e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2193114397957083e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.2193114397957083e-14</v>
+      </c>
+      <c r="E89">
+        <v>0.00015923118522768109</v>
+      </c>
+      <c r="F89">
+        <v>0.0004222911018329314</v>
+      </c>
+      <c r="G89">
+        <v>0.00097124669151496491</v>
+      </c>
+      <c r="H89">
+        <v>1.228400039413577e-08</v>
+      </c>
+      <c r="I89">
+        <v>0.045796601833942713</v>
+      </c>
+      <c r="J89">
+        <v>0.95265061690341468</v>
+      </c>
+      <c r="K89">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B90">
+        <v>9.4809421269088544e-14</v>
+      </c>
+      <c r="C90">
+        <v>9.4809421269088544e-14</v>
+      </c>
+      <c r="D90">
+        <v>9.4809421269088582e-14</v>
+      </c>
+      <c r="E90">
+        <v>0.018316781441498193</v>
+      </c>
+      <c r="F90">
+        <v>0.010869853577644811</v>
+      </c>
+      <c r="G90">
+        <v>0.0064816365043313066</v>
+      </c>
+      <c r="H90">
+        <v>8.3875059445219857e-08</v>
+      </c>
+      <c r="I90">
+        <v>0.0021531345852326455</v>
+      </c>
+      <c r="J90">
+        <v>0.96217851001594923</v>
+      </c>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B91">
+        <v>3.1482079993506917e-13</v>
+      </c>
+      <c r="C91">
+        <v>3.1482079993506917e-13</v>
+      </c>
+      <c r="D91">
+        <v>3.1482079993506917e-13</v>
+      </c>
+      <c r="E91">
+        <v>0.0021593719630473079</v>
+      </c>
+      <c r="F91">
+        <v>0.26687228183549211</v>
+      </c>
+      <c r="G91">
+        <v>0.51455088532607796</v>
+      </c>
+      <c r="H91">
+        <v>1.1518834341554981e-12</v>
+      </c>
+      <c r="I91">
+        <v>0.010770621030901442</v>
+      </c>
+      <c r="J91">
+        <v>0.20564683984238485</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>